--- a/data/cross_validation_numbers.xlsx
+++ b/data/cross_validation_numbers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
   <si>
     <t>Dataset</t>
   </si>
@@ -99,15 +99,23 @@
   <si>
     <t>ProtBERT SVN</t>
   </si>
+  <si>
+    <t>SeqVec KNN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -123,6 +131,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <i/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -159,34 +168,42 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +433,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -451,60 +468,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5">
-        <v>0.562244</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.549776</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.567699</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.544516</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.352815</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.494253</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.558348</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.480031</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.505747</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.578414</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
+      <c r="D2" s="6">
+        <v>0.562244302</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.549775959</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.567699201</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.544515878</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.352815118</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.494252874</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.558347945</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.480031171</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.505747126</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.578414183</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="7"/>
@@ -512,34 +514,34 @@
         <v>16</v>
       </c>
       <c r="D3" s="9">
-        <v>0.500487</v>
+        <v>0.500487045</v>
       </c>
       <c r="E3" s="9">
-        <v>0.536723</v>
+        <v>0.536723164</v>
       </c>
       <c r="F3" s="9">
-        <v>0.520943</v>
+        <v>0.520942918</v>
       </c>
       <c r="G3" s="9">
-        <v>0.535359</v>
+        <v>0.535359439</v>
       </c>
       <c r="H3" s="9">
-        <v>0.715371</v>
+        <v>0.715371128</v>
       </c>
       <c r="I3" s="9">
-        <v>0.575102</v>
+        <v>0.575102279</v>
       </c>
       <c r="J3" s="9">
-        <v>0.549386</v>
+        <v>0.549386324</v>
       </c>
       <c r="K3" s="9">
-        <v>0.604715</v>
+        <v>0.604714592</v>
       </c>
       <c r="L3" s="9">
-        <v>0.571401</v>
+        <v>0.57140074</v>
       </c>
       <c r="M3" s="9">
-        <v>0.497565</v>
+        <v>0.497564777</v>
       </c>
     </row>
     <row r="4">
@@ -620,34 +622,34 @@
         <v>19</v>
       </c>
       <c r="D6" s="9">
-        <v>0.11138</v>
+        <v>0.111380145</v>
       </c>
       <c r="E6" s="9">
-        <v>0.138793</v>
+        <v>0.138793373</v>
       </c>
       <c r="F6" s="9">
-        <v>0.145414</v>
+        <v>0.14541387</v>
       </c>
       <c r="G6" s="9">
-        <v>0.129829</v>
+        <v>0.129829006</v>
       </c>
       <c r="H6" s="9">
-        <v>0.087021</v>
+        <v>0.087021382</v>
       </c>
       <c r="I6" s="9">
-        <v>0.107618</v>
+        <v>0.107617896</v>
       </c>
       <c r="J6" s="9">
-        <v>0.163949</v>
+        <v>0.163949007</v>
       </c>
       <c r="K6" s="9">
-        <v>0.122916</v>
+        <v>0.122916078</v>
       </c>
       <c r="L6" s="9">
-        <v>0.118955</v>
+        <v>0.118954641</v>
       </c>
       <c r="M6" s="9">
-        <v>0.132473</v>
+        <v>0.132472826</v>
       </c>
     </row>
     <row r="7">
@@ -656,34 +658,34 @@
         <v>20</v>
       </c>
       <c r="D7" s="9">
-        <v>0.499513</v>
+        <v>0.499512955</v>
       </c>
       <c r="E7" s="9">
-        <v>0.463277</v>
+        <v>0.463276836</v>
       </c>
       <c r="F7" s="9">
-        <v>0.479057</v>
+        <v>0.479057082</v>
       </c>
       <c r="G7" s="9">
-        <v>0.464641</v>
+        <v>0.464640561</v>
       </c>
       <c r="H7" s="9">
-        <v>0.284629</v>
+        <v>0.284628872</v>
       </c>
       <c r="I7" s="9">
-        <v>0.424898</v>
+        <v>0.424897721</v>
       </c>
       <c r="J7" s="9">
-        <v>0.450614</v>
+        <v>0.450613676</v>
       </c>
       <c r="K7" s="9">
-        <v>0.395285</v>
+        <v>0.395285408</v>
       </c>
       <c r="L7" s="9">
-        <v>0.428599</v>
+        <v>0.42859926</v>
       </c>
       <c r="M7" s="9">
-        <v>0.502435</v>
+        <v>0.502435223</v>
       </c>
     </row>
     <row r="8">
@@ -692,34 +694,34 @@
         <v>21</v>
       </c>
       <c r="D8" s="9">
-        <v>0.235872</v>
+        <v>0.235872477</v>
       </c>
       <c r="E8" s="9">
-        <v>0.253574</v>
+        <v>0.253573963</v>
       </c>
       <c r="F8" s="9">
-        <v>0.263935</v>
+        <v>0.263934735</v>
       </c>
       <c r="G8" s="9">
-        <v>0.245609</v>
+        <v>0.245609084</v>
       </c>
       <c r="H8" s="9">
-        <v>0.157381</v>
+        <v>0.15738106</v>
       </c>
       <c r="I8" s="9">
-        <v>0.213838</v>
+        <v>0.213837786</v>
       </c>
       <c r="J8" s="9">
-        <v>0.271804</v>
+        <v>0.27180446</v>
       </c>
       <c r="K8" s="9">
-        <v>0.220424</v>
+        <v>0.220424436</v>
       </c>
       <c r="L8" s="9">
-        <v>0.225796</v>
+        <v>0.225796083</v>
       </c>
       <c r="M8" s="9">
-        <v>0.25799</v>
+        <v>0.257990337</v>
       </c>
     </row>
     <row r="9">
@@ -728,91 +730,76 @@
         <v>22</v>
       </c>
       <c r="D9" s="9">
-        <v>0.200436</v>
+        <v>0.20043573</v>
       </c>
       <c r="E9" s="9">
-        <v>0.243755</v>
+        <v>0.243755147</v>
       </c>
       <c r="F9" s="9">
-        <v>0.253906</v>
+        <v>0.25390625</v>
       </c>
       <c r="G9" s="9">
-        <v>0.229821</v>
+        <v>0.229820628</v>
       </c>
       <c r="H9" s="9">
-        <v>0.16011</v>
+        <v>0.16010979</v>
       </c>
       <c r="I9" s="9">
-        <v>0.194323</v>
+        <v>0.194323144</v>
       </c>
       <c r="J9" s="9">
-        <v>0.281712</v>
+        <v>0.281711666</v>
       </c>
       <c r="K9" s="9">
-        <v>0.218923</v>
+        <v>0.218922999</v>
       </c>
       <c r="L9" s="9">
-        <v>0.212617</v>
+        <v>0.21261745</v>
       </c>
       <c r="M9" s="9">
-        <v>0.233953</v>
+        <v>0.233953209</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.490488</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.479758</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.497881</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.479849</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.3813</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.451718</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.48643</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.443513</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.458119</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.495807</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
+      <c r="D10" s="6">
+        <v>0.490487783</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.479758363</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.497881165</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.479848526</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.381300153</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.451717609</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.486430439</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.443512758</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.458119196</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.495807411</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -820,34 +807,34 @@
         <v>16</v>
       </c>
       <c r="D11" s="9">
-        <v>0.582184</v>
+        <v>0.582183753</v>
       </c>
       <c r="E11" s="9">
-        <v>0.605807</v>
+        <v>0.60580651</v>
       </c>
       <c r="F11" s="9">
-        <v>0.595528</v>
+        <v>0.595527906</v>
       </c>
       <c r="G11" s="9">
-        <v>0.603643</v>
+        <v>0.603642593</v>
       </c>
       <c r="H11" s="9">
-        <v>0.699937</v>
+        <v>0.699936886</v>
       </c>
       <c r="I11" s="9">
-        <v>0.623298</v>
+        <v>0.62329817</v>
       </c>
       <c r="J11" s="9">
-        <v>0.61302</v>
+        <v>0.613019565</v>
       </c>
       <c r="K11" s="9">
-        <v>0.642864</v>
+        <v>0.642863583</v>
       </c>
       <c r="L11" s="9">
-        <v>0.622938</v>
+        <v>0.622937517</v>
       </c>
       <c r="M11" s="9">
-        <v>0.583626</v>
+        <v>0.583626364</v>
       </c>
     </row>
     <row r="12">
@@ -928,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="D14" s="9">
-        <v>0.110973</v>
+        <v>0.110973427</v>
       </c>
       <c r="E14" s="9">
-        <v>0.123761</v>
+        <v>0.123761085</v>
       </c>
       <c r="F14" s="9">
-        <v>0.135584</v>
+        <v>0.135584348</v>
       </c>
       <c r="G14" s="9">
-        <v>0.121506</v>
+        <v>0.121506364</v>
       </c>
       <c r="H14" s="9">
-        <v>0.103994</v>
+        <v>0.103993536</v>
       </c>
       <c r="I14" s="9">
-        <v>0.107424</v>
+        <v>0.107424145</v>
       </c>
       <c r="J14" s="9">
-        <v>0.139585</v>
+        <v>0.139584915</v>
       </c>
       <c r="K14" s="9">
-        <v>0.118447</v>
+        <v>0.118447082</v>
       </c>
       <c r="L14" s="9">
-        <v>0.115138</v>
+        <v>0.11513832</v>
       </c>
       <c r="M14" s="9">
-        <v>0.119799</v>
+        <v>0.119798749</v>
       </c>
     </row>
     <row r="15">
@@ -964,34 +951,34 @@
         <v>20</v>
       </c>
       <c r="D15" s="9">
-        <v>0.417816</v>
+        <v>0.417816247</v>
       </c>
       <c r="E15" s="9">
-        <v>0.394193</v>
+        <v>0.39419349</v>
       </c>
       <c r="F15" s="9">
-        <v>0.404472</v>
+        <v>0.404472094</v>
       </c>
       <c r="G15" s="9">
-        <v>0.396357</v>
+        <v>0.396357407</v>
       </c>
       <c r="H15" s="9">
-        <v>0.300063</v>
+        <v>0.300063114</v>
       </c>
       <c r="I15" s="9">
-        <v>0.376702</v>
+        <v>0.37670183</v>
       </c>
       <c r="J15" s="9">
-        <v>0.38698</v>
+        <v>0.386980435</v>
       </c>
       <c r="K15" s="9">
-        <v>0.357136</v>
+        <v>0.357136417</v>
       </c>
       <c r="L15" s="9">
-        <v>0.377062</v>
+        <v>0.377062483</v>
       </c>
       <c r="M15" s="9">
-        <v>0.416374</v>
+        <v>0.416373636</v>
       </c>
     </row>
     <row r="16">
@@ -1000,34 +987,34 @@
         <v>21</v>
       </c>
       <c r="D16" s="9">
-        <v>0.215329</v>
+        <v>0.21532882</v>
       </c>
       <c r="E16" s="9">
-        <v>0.220875</v>
+        <v>0.22087511</v>
       </c>
       <c r="F16" s="9">
-        <v>0.23418</v>
+        <v>0.2341796</v>
       </c>
       <c r="G16" s="9">
-        <v>0.219454</v>
+        <v>0.219453748</v>
       </c>
       <c r="H16" s="9">
-        <v>0.176648</v>
+        <v>0.176648307</v>
       </c>
       <c r="I16" s="9">
-        <v>0.201164</v>
+        <v>0.201163794</v>
       </c>
       <c r="J16" s="9">
-        <v>0.232415</v>
+        <v>0.232414783</v>
       </c>
       <c r="K16" s="9">
-        <v>0.205674</v>
+        <v>0.205673932</v>
       </c>
       <c r="L16" s="9">
-        <v>0.208361</v>
+        <v>0.208361083</v>
       </c>
       <c r="M16" s="9">
-        <v>0.223341</v>
+        <v>0.223340638</v>
       </c>
     </row>
     <row r="17">
@@ -1035,62 +1022,77 @@
       <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="D17" s="9">
+        <v>0.199776924</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.220262272</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.238792209</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.216684217</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.188395191</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.194007229</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.244975014</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.211806323</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.206500517</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.213964784</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5">
-        <v>0.662744</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.645082</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.67873</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.649011</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.61502</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.632304</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0.661843</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.628375</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.628411</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0.653408</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="D18" s="6">
+        <v>0.662743755</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.645081642</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.67872977</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.649010561</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.615020005</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.632303644</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.661842627</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.628374725</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.62841077</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.653408067</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -1098,34 +1100,34 @@
         <v>16</v>
       </c>
       <c r="D19" s="9">
-        <v>0.428144</v>
+        <v>0.428144036</v>
       </c>
       <c r="E19" s="9">
-        <v>0.44422</v>
+        <v>0.444220164</v>
       </c>
       <c r="F19" s="9">
-        <v>0.443157</v>
+        <v>0.443156832</v>
       </c>
       <c r="G19" s="9">
-        <v>0.450114</v>
+        <v>0.450113542</v>
       </c>
       <c r="H19" s="9">
-        <v>0.495116</v>
+        <v>0.495115885</v>
       </c>
       <c r="I19" s="9">
-        <v>0.447194</v>
+        <v>0.447193887</v>
       </c>
       <c r="J19" s="9">
-        <v>0.45033</v>
+        <v>0.450329813</v>
       </c>
       <c r="K19" s="9">
-        <v>0.478823</v>
+        <v>0.478823487</v>
       </c>
       <c r="L19" s="9">
-        <v>0.456007</v>
+        <v>0.456006921</v>
       </c>
       <c r="M19" s="9">
-        <v>0.434182</v>
+        <v>0.434181595</v>
       </c>
     </row>
     <row r="20">
@@ -1206,34 +1208,34 @@
         <v>19</v>
       </c>
       <c r="D22" s="9">
-        <v>0.17511</v>
+        <v>0.175110247</v>
       </c>
       <c r="E22" s="9">
-        <v>0.167382</v>
+        <v>0.167381684</v>
       </c>
       <c r="F22" s="9">
-        <v>0.215712</v>
+        <v>0.215711916</v>
       </c>
       <c r="G22" s="9">
-        <v>0.180476</v>
+        <v>0.1804758</v>
       </c>
       <c r="H22" s="9">
-        <v>0.181967</v>
+        <v>0.181967067</v>
       </c>
       <c r="I22" s="9">
-        <v>0.150938</v>
+        <v>0.150937586</v>
       </c>
       <c r="J22" s="9">
-        <v>0.199417</v>
+        <v>0.199416872</v>
       </c>
       <c r="K22" s="9">
-        <v>0.182925</v>
+        <v>0.182925329</v>
       </c>
       <c r="L22" s="9">
-        <v>0.156206</v>
+        <v>0.15620623</v>
       </c>
       <c r="M22" s="9">
-        <v>0.16787</v>
+        <v>0.167869849</v>
       </c>
     </row>
     <row r="23">
@@ -1242,34 +1244,34 @@
         <v>20</v>
       </c>
       <c r="D23" s="9">
-        <v>0.571856</v>
+        <v>0.571855964</v>
       </c>
       <c r="E23" s="9">
-        <v>0.55578</v>
+        <v>0.555779836</v>
       </c>
       <c r="F23" s="9">
-        <v>0.556843</v>
+        <v>0.556843168</v>
       </c>
       <c r="G23" s="9">
-        <v>0.549886</v>
+        <v>0.549886458</v>
       </c>
       <c r="H23" s="9">
-        <v>0.504884</v>
+        <v>0.504884115</v>
       </c>
       <c r="I23" s="9">
-        <v>0.552806</v>
+        <v>0.552806113</v>
       </c>
       <c r="J23" s="9">
-        <v>0.54967</v>
+        <v>0.549670187</v>
       </c>
       <c r="K23" s="9">
-        <v>0.521177</v>
+        <v>0.521176513</v>
       </c>
       <c r="L23" s="9">
-        <v>0.543993</v>
+        <v>0.543993079</v>
       </c>
       <c r="M23" s="9">
-        <v>0.565818</v>
+        <v>0.565818405</v>
       </c>
     </row>
     <row r="24">
@@ -1278,34 +1280,34 @@
         <v>21</v>
       </c>
       <c r="D24" s="9">
-        <v>0.316446</v>
+        <v>0.316445634</v>
       </c>
       <c r="E24" s="9">
-        <v>0.305004</v>
+        <v>0.305003877</v>
       </c>
       <c r="F24" s="9">
-        <v>0.34658</v>
+        <v>0.346580015</v>
       </c>
       <c r="G24" s="9">
-        <v>0.315026</v>
+        <v>0.315025711</v>
       </c>
       <c r="H24" s="9">
-        <v>0.303104</v>
+        <v>0.303104407</v>
       </c>
       <c r="I24" s="9">
-        <v>0.288858</v>
+        <v>0.288858477</v>
       </c>
       <c r="J24" s="9">
-        <v>0.331079</v>
+        <v>0.33107931</v>
       </c>
       <c r="K24" s="9">
-        <v>0.308766</v>
+        <v>0.308765907</v>
       </c>
       <c r="L24" s="9">
-        <v>0.291505</v>
+        <v>0.291504902</v>
       </c>
       <c r="M24" s="9">
-        <v>0.308195</v>
+        <v>0.308194501</v>
       </c>
     </row>
     <row r="25">
@@ -1313,62 +1315,77 @@
       <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="D25" s="9">
+        <v>0.298032031</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.28676428</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.354873409</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.305767894</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.307905477</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.262286309</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.33252304</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.309276206</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.270204788</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.287480406</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5">
-        <v>0.533981</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.466019</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.61165</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="D26" s="6">
+        <v>0.553398058</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.466019417</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.582524272</v>
+      </c>
+      <c r="G26" s="6">
         <v>0.5</v>
       </c>
-      <c r="H26" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.578431</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0.539216</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.598039</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0.54902</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
+      <c r="H26" s="6">
+        <v>0.470588235</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.588235294</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.529411765</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.588235294</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.588235294</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.529411765</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -1376,34 +1393,34 @@
         <v>16</v>
       </c>
       <c r="D27" s="9">
-        <v>0.372334</v>
+        <v>0.445224873</v>
       </c>
       <c r="E27" s="9">
-        <v>0.277249</v>
+        <v>0.27473545</v>
       </c>
       <c r="F27" s="9">
-        <v>0.436244</v>
+        <v>0.426334968</v>
       </c>
       <c r="G27" s="9">
-        <v>0.433662</v>
+        <v>0.430979853</v>
       </c>
       <c r="H27" s="9">
-        <v>0.471693</v>
+        <v>0.517751411</v>
       </c>
       <c r="I27" s="9">
-        <v>0.260316</v>
+        <v>0.272309833</v>
       </c>
       <c r="J27" s="9">
-        <v>0.386412</v>
+        <v>0.374587912</v>
       </c>
       <c r="K27" s="9">
-        <v>0.413968</v>
+        <v>0.317017396</v>
       </c>
       <c r="L27" s="9">
-        <v>0.350867</v>
+        <v>0.530398768</v>
       </c>
       <c r="M27" s="9">
-        <v>0.347622</v>
+        <v>0.408555195</v>
       </c>
     </row>
     <row r="28">
@@ -1412,34 +1429,34 @@
         <v>17</v>
       </c>
       <c r="D28" s="9">
-        <v>0.525932</v>
+        <v>0.514523385</v>
       </c>
       <c r="E28" s="9">
-        <v>0.660156</v>
+        <v>0.664052288</v>
       </c>
       <c r="F28" s="9">
-        <v>0.578247</v>
+        <v>0.59215368</v>
       </c>
       <c r="G28" s="9">
-        <v>0.606786</v>
+        <v>0.605</v>
       </c>
       <c r="H28" s="9">
-        <v>0.463853</v>
+        <v>0.467748918</v>
       </c>
       <c r="I28" s="9">
-        <v>0.434307</v>
+        <v>0.430411255</v>
       </c>
       <c r="J28" s="9">
-        <v>0.409307</v>
+        <v>0.402813853</v>
       </c>
       <c r="K28" s="9">
-        <v>0.496104</v>
+        <v>0.566287879</v>
       </c>
       <c r="L28" s="9">
-        <v>0.337689</v>
+        <v>0.316773633</v>
       </c>
       <c r="M28" s="9">
-        <v>0.5927</v>
+        <v>0.603395298</v>
       </c>
     </row>
     <row r="29">
@@ -1448,34 +1465,34 @@
         <v>18</v>
       </c>
       <c r="D29" s="9">
-        <v>0.474068</v>
+        <v>0.485476615</v>
       </c>
       <c r="E29" s="9">
-        <v>0.339844</v>
+        <v>0.335947712</v>
       </c>
       <c r="F29" s="9">
-        <v>0.386607</v>
+        <v>0.373859127</v>
       </c>
       <c r="G29" s="9">
-        <v>0.357468</v>
+        <v>0.359090909</v>
       </c>
       <c r="H29" s="9">
-        <v>0.536147</v>
+        <v>0.532251082</v>
       </c>
       <c r="I29" s="9">
-        <v>0.565693</v>
+        <v>0.569588745</v>
       </c>
       <c r="J29" s="9">
-        <v>0.590693</v>
+        <v>0.597186147</v>
       </c>
       <c r="K29" s="9">
-        <v>0.503896</v>
+        <v>0.433712121</v>
       </c>
       <c r="L29" s="9">
-        <v>0.662311</v>
+        <v>0.683226367</v>
       </c>
       <c r="M29" s="9">
-        <v>0.4073</v>
+        <v>0.396604702</v>
       </c>
     </row>
     <row r="30">
@@ -1484,34 +1501,34 @@
         <v>19</v>
       </c>
       <c r="D30" s="9">
-        <v>0.516266</v>
+        <v>0.497291871</v>
       </c>
       <c r="E30" s="9">
-        <v>0.387741</v>
+        <v>0.38315508</v>
       </c>
       <c r="F30" s="9">
-        <v>0.353785</v>
+        <v>0.336243081</v>
       </c>
       <c r="G30" s="9">
-        <v>0.335032</v>
+        <v>0.360994214</v>
       </c>
       <c r="H30" s="9">
-        <v>0.479798</v>
+        <v>0.467748918</v>
       </c>
       <c r="I30" s="9">
-        <v>0.649684</v>
+        <v>0.627317956</v>
       </c>
       <c r="J30" s="9">
-        <v>0.638562</v>
+        <v>0.653709716</v>
       </c>
       <c r="K30" s="9">
-        <v>0.513289</v>
+        <v>0.464740352</v>
       </c>
       <c r="L30" s="9">
-        <v>0.72009</v>
+        <v>0.64535503</v>
       </c>
       <c r="M30" s="9">
-        <v>0.356961</v>
+        <v>0.346845045</v>
       </c>
     </row>
     <row r="31">
@@ -1520,34 +1537,34 @@
         <v>20</v>
       </c>
       <c r="D31" s="9">
-        <v>0.936837</v>
+        <v>0.941846553</v>
       </c>
       <c r="E31" s="9">
-        <v>0.928725</v>
+        <v>0.928267618</v>
       </c>
       <c r="F31" s="9">
-        <v>0.954961</v>
+        <v>0.950440498</v>
       </c>
       <c r="G31" s="9">
-        <v>0.933387</v>
+        <v>0.932821145</v>
       </c>
       <c r="H31" s="9">
-        <v>0.932289</v>
+        <v>0.930744069</v>
       </c>
       <c r="I31" s="9">
-        <v>0.941499</v>
+        <v>0.942669502</v>
       </c>
       <c r="J31" s="9">
-        <v>0.937218</v>
+        <v>0.940275004</v>
       </c>
       <c r="K31" s="9">
-        <v>0.944429</v>
+        <v>0.946295936</v>
       </c>
       <c r="L31" s="9">
-        <v>0.945049</v>
+        <v>0.947953249</v>
       </c>
       <c r="M31" s="9">
-        <v>0.94122</v>
+        <v>0.939424137</v>
       </c>
     </row>
     <row r="32">
@@ -1556,34 +1573,34 @@
         <v>21</v>
       </c>
       <c r="D32" s="9">
-        <v>0.357111</v>
+        <v>0.390816151</v>
       </c>
       <c r="E32" s="9">
-        <v>0.245639</v>
+        <v>0.242484684</v>
       </c>
       <c r="F32" s="9">
-        <v>0.474786</v>
+        <v>0.431554908</v>
       </c>
       <c r="G32" s="9">
-        <v>0.304039</v>
+        <v>0.302427926</v>
       </c>
       <c r="H32" s="9">
-        <v>0.303299</v>
+        <v>0.27148717</v>
       </c>
       <c r="I32" s="9">
-        <v>0.416409</v>
+        <v>0.431836008</v>
       </c>
       <c r="J32" s="9">
-        <v>0.326491</v>
+        <v>0.362071316</v>
       </c>
       <c r="K32" s="9">
-        <v>0.394395</v>
+        <v>0.440140779</v>
       </c>
       <c r="L32" s="9">
-        <v>0.444768</v>
+        <v>0.449500737</v>
       </c>
       <c r="M32" s="9">
-        <v>0.383482</v>
+        <v>0.357355563</v>
       </c>
     </row>
     <row r="33">
@@ -1592,91 +1609,76 @@
         <v>22</v>
       </c>
       <c r="D33" s="9">
-        <v>0.474758</v>
+        <v>0.484813624</v>
       </c>
       <c r="E33" s="9">
-        <v>0.347556</v>
+        <v>0.342511637</v>
       </c>
       <c r="F33" s="9">
-        <v>0.350852</v>
+        <v>0.336133015</v>
       </c>
       <c r="G33" s="9">
-        <v>0.330711</v>
+        <v>0.338108638</v>
       </c>
       <c r="H33" s="9">
-        <v>0.483695</v>
+        <v>0.477919285</v>
       </c>
       <c r="I33" s="9">
-        <v>0.576268</v>
+        <v>0.582075799</v>
       </c>
       <c r="J33" s="9">
-        <v>0.604852</v>
+        <v>0.612299465</v>
       </c>
       <c r="K33" s="9">
-        <v>0.50734</v>
+        <v>0.436768324</v>
       </c>
       <c r="L33" s="9">
-        <v>0.668811</v>
+        <v>0.651471234</v>
       </c>
       <c r="M33" s="9">
-        <v>0.377341</v>
+        <v>0.367403357</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="5">
-        <v>0.504854</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.504854</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0.582524</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.460784</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.509804</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0.539216</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0.578431</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0.607843</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0.54902</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
+      <c r="D34" s="6">
+        <v>0.504854369</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.514563107</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.601941748</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.480392157</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.558823529</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.529411765</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.568627451</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.588235294</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.549019608</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.539215686</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
@@ -1684,34 +1686,34 @@
         <v>16</v>
       </c>
       <c r="D35" s="9">
-        <v>0.418692</v>
+        <v>0.421785549</v>
       </c>
       <c r="E35" s="9">
-        <v>0.43792</v>
+        <v>0.172335601</v>
       </c>
       <c r="F35" s="9">
-        <v>0.400719</v>
+        <v>0.497406572</v>
       </c>
       <c r="G35" s="9">
-        <v>0.435267</v>
+        <v>0.392375855</v>
       </c>
       <c r="H35" s="9">
-        <v>0.544883</v>
+        <v>0.546654217</v>
       </c>
       <c r="I35" s="9">
-        <v>0.372222</v>
+        <v>0.379004329</v>
       </c>
       <c r="J35" s="9">
-        <v>0.424532</v>
+        <v>0.417039442</v>
       </c>
       <c r="K35" s="9">
-        <v>0.167027</v>
+        <v>0.379417989</v>
       </c>
       <c r="L35" s="9">
-        <v>0.443272</v>
+        <v>0.410036309</v>
       </c>
       <c r="M35" s="9">
-        <v>0.449547</v>
+        <v>0.397682398</v>
       </c>
     </row>
     <row r="36">
@@ -1720,34 +1722,34 @@
         <v>17</v>
       </c>
       <c r="D36" s="9">
-        <v>0.6187</v>
+        <v>0.621882692</v>
       </c>
       <c r="E36" s="9">
-        <v>0.543842</v>
+        <v>0.657422969</v>
       </c>
       <c r="F36" s="9">
-        <v>0.653193</v>
+        <v>0.466991342</v>
       </c>
       <c r="G36" s="9">
-        <v>0.618393</v>
+        <v>0.59547619</v>
       </c>
       <c r="H36" s="9">
-        <v>0.437284</v>
+        <v>0.415205628</v>
       </c>
       <c r="I36" s="9">
-        <v>0.429167</v>
+        <v>0.431331169</v>
       </c>
       <c r="J36" s="9">
-        <v>0.445996</v>
+        <v>0.448160173</v>
       </c>
       <c r="K36" s="9">
-        <v>0.595942</v>
+        <v>0.521212121</v>
       </c>
       <c r="L36" s="9">
-        <v>0.342095</v>
+        <v>0.344691936</v>
       </c>
       <c r="M36" s="9">
-        <v>0.540353</v>
+        <v>0.601375095</v>
       </c>
     </row>
     <row r="37">
@@ -1756,34 +1758,34 @@
         <v>18</v>
       </c>
       <c r="D37" s="9">
-        <v>0.3813</v>
+        <v>0.378117308</v>
       </c>
       <c r="E37" s="9">
-        <v>0.456158</v>
+        <v>0.342577031</v>
       </c>
       <c r="F37" s="9">
-        <v>0.317907</v>
+        <v>0.48859127</v>
       </c>
       <c r="G37" s="9">
-        <v>0.381607</v>
+        <v>0.40452381</v>
       </c>
       <c r="H37" s="9">
-        <v>0.562716</v>
+        <v>0.584794372</v>
       </c>
       <c r="I37" s="9">
-        <v>0.570833</v>
+        <v>0.568668831</v>
       </c>
       <c r="J37" s="9">
-        <v>0.554004</v>
+        <v>0.551839827</v>
       </c>
       <c r="K37" s="9">
-        <v>0.404058</v>
+        <v>0.478787879</v>
       </c>
       <c r="L37" s="9">
-        <v>0.657905</v>
+        <v>0.655308064</v>
       </c>
       <c r="M37" s="9">
-        <v>0.459647</v>
+        <v>0.398624905</v>
       </c>
     </row>
     <row r="38">
@@ -1792,34 +1794,34 @@
         <v>19</v>
       </c>
       <c r="D38" s="9">
-        <v>0.380494</v>
+        <v>0.372577423</v>
       </c>
       <c r="E38" s="9">
-        <v>0.429335</v>
+        <v>0.466121893</v>
       </c>
       <c r="F38" s="9">
-        <v>0.342354</v>
+        <v>0.450653595</v>
       </c>
       <c r="G38" s="9">
-        <v>0.355468</v>
+        <v>0.386623377</v>
       </c>
       <c r="H38" s="9">
-        <v>0.501898</v>
+        <v>0.519570884</v>
       </c>
       <c r="I38" s="9">
-        <v>0.582033</v>
+        <v>0.586664969</v>
       </c>
       <c r="J38" s="9">
-        <v>0.5643</v>
+        <v>0.566304555</v>
       </c>
       <c r="K38" s="9">
-        <v>0.534341</v>
+        <v>0.463203463</v>
       </c>
       <c r="L38" s="9">
-        <v>0.660606</v>
+        <v>0.666648569</v>
       </c>
       <c r="M38" s="9">
-        <v>0.398357</v>
+        <v>0.298320499</v>
       </c>
     </row>
     <row r="39">
@@ -1828,34 +1830,34 @@
         <v>20</v>
       </c>
       <c r="D39" s="9">
-        <v>0.937129</v>
+        <v>0.937160431</v>
       </c>
       <c r="E39" s="9">
-        <v>0.937609</v>
+        <v>0.926540654</v>
       </c>
       <c r="F39" s="9">
-        <v>0.94958</v>
+        <v>0.953751008</v>
       </c>
       <c r="G39" s="9">
-        <v>0.921892</v>
+        <v>0.925719939</v>
       </c>
       <c r="H39" s="9">
-        <v>0.939247</v>
+        <v>0.945286279</v>
       </c>
       <c r="I39" s="9">
-        <v>0.941191</v>
+        <v>0.940661928</v>
       </c>
       <c r="J39" s="9">
-        <v>0.946604</v>
+        <v>0.944517107</v>
       </c>
       <c r="K39" s="9">
-        <v>0.941343</v>
+        <v>0.95050596</v>
       </c>
       <c r="L39" s="9">
-        <v>0.942648</v>
+        <v>0.94142518</v>
       </c>
       <c r="M39" s="9">
-        <v>0.935098</v>
+        <v>0.94094746</v>
       </c>
     </row>
     <row r="40">
@@ -1864,34 +1866,34 @@
         <v>21</v>
       </c>
       <c r="D40" s="9">
-        <v>0.325711</v>
+        <v>0.324926409</v>
       </c>
       <c r="E40" s="9">
-        <v>0.326578</v>
+        <v>0.344195085</v>
       </c>
       <c r="F40" s="9">
-        <v>0.43305</v>
+        <v>0.468934981</v>
       </c>
       <c r="G40" s="9">
-        <v>0.252359</v>
+        <v>0.286745542</v>
       </c>
       <c r="H40" s="9">
-        <v>0.346986</v>
+        <v>0.41063841</v>
       </c>
       <c r="I40" s="9">
-        <v>0.374341</v>
+        <v>0.364340963</v>
       </c>
       <c r="J40" s="9">
-        <v>0.433295</v>
+        <v>0.417555436</v>
       </c>
       <c r="K40" s="9">
-        <v>0.481764</v>
+        <v>0.455240788</v>
       </c>
       <c r="L40" s="9">
-        <v>0.389047</v>
+        <v>0.385487154</v>
       </c>
       <c r="M40" s="9">
-        <v>0.312293</v>
+        <v>0.372426516</v>
       </c>
     </row>
     <row r="41">
@@ -1900,547 +1902,652 @@
         <v>22</v>
       </c>
       <c r="D41" s="9">
-        <v>0.375919</v>
+        <v>0.369323596</v>
       </c>
       <c r="E41" s="9">
-        <v>0.428742</v>
+        <v>0.337207957</v>
       </c>
       <c r="F41" s="9">
-        <v>0.323266</v>
+        <v>0.4530227</v>
       </c>
       <c r="G41" s="9">
-        <v>0.350478</v>
+        <v>0.379503426</v>
       </c>
       <c r="H41" s="9">
-        <v>0.513146</v>
+        <v>0.534084148</v>
       </c>
       <c r="I41" s="9">
-        <v>0.57414</v>
+        <v>0.574861338</v>
       </c>
       <c r="J41" s="9">
-        <v>0.540382</v>
+        <v>0.541114149</v>
       </c>
       <c r="K41" s="9">
-        <v>0.417027</v>
+        <v>0.468892964</v>
       </c>
       <c r="L41" s="9">
-        <v>0.656012</v>
+        <v>0.653819864</v>
       </c>
       <c r="M41" s="9">
-        <v>0.414554</v>
+        <v>0.336466647</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.701357466</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.719457014</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.669683258</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.737556561</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.701357466</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.678733032</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.71040724</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.71040724</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.678733032</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0.663636364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+      <c r="C43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.529121467</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.504589358</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.326632566</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.382292269</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.27027417</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.338091695</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.418049655</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.321449275</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.445604396</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0.423366633</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="C44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.266496548</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.302484795</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.376108203</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.20660804</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.352308143</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.338845713</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.267211828</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.298366678</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0.224133794</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0.269075639</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="C45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.733503452</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.697515205</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.623891797</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.79339196</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0.647691857</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.661154287</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0.732788172</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0.701633322</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0.775866206</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0.730924361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2"/>
+      <c r="C46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.760983086</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.715287654</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.71523312</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.837670789</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0.711496072</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0.691534462</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.751168859</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0.788722802</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0.804587335</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0.762640044</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+      <c r="C47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.970589856</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.971310081</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0.967827264</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.974396414</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.972858979</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.971511899</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.970814314</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0.972146936</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0.969629872</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0.966676068</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+      <c r="C48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.626802729</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.644579551</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.578792204</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.666466623</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0.61803837</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0.590689174</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.632926733</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.632020132</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.594429155</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0.577161752</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="C49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.724592365</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.692904563</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.63125516</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.798617808</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.673018471</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0.672859708</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0.727123013</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0.709195946</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.779612474</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0.729186671</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.746606335</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.719457014</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.678733032</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.769230769</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.7239819</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.678733032</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.696832579</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.728506787</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.701357466</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="C51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.42005772</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.411821339</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.357856198</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.332314744</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.232200502</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.326374396</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.379459769</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.461263264</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0.523185856</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0.517770296</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+      <c r="C52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.279369007</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.292831031</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.380952552</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.200408401</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.311180411</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.343925165</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0.267104838</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0.208180896</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0.215720339</v>
+      </c>
+      <c r="M52" s="9">
+        <v>0.199059442</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2"/>
+      <c r="C53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.720630993</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.707168969</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0.577777618</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.799591599</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0.688819589</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0.656074835</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0.732895162</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0.791819104</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0.73199435</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0.800940558</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2"/>
+      <c r="C54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.816832731</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.726497472</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0.67605307</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.906285249</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.782745933</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0.689232924</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0.787577202</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0.821768293</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0.756193387</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0.800929334</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2"/>
+      <c r="C55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.974030873</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.971420211</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.971099371</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.977126156</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.974201402</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.971337641</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0.971142242</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0.974739186</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.973703255</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0.975651929</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2"/>
+      <c r="C56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.681029481</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.644132445</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0.590366535</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.707955454</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0.647984825</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.589522481</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0.615113273</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0.657797799</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0.623369027</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0.686911853</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+      <c r="C57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.742507619</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.709116719</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0.60870704</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.829995811</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0.723715697</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.668260081</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0.751440862</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0.774493738</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0.733939679</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0.790302673</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D58" s="6">
         <v>0.522167487684729</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E58" s="6">
         <v>0.54679802955665</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F58" s="6">
         <v>0.46039603960396</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G58" s="6">
         <v>0.539603960396039</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H58" s="6">
         <v>0.49009900990099</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1"/>
-      <c r="C43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.222112375533428</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0.216759247671034</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0.348597839358708</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0.393578523030148</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0.332689355057776</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1"/>
-      <c r="C44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0.735569566092822</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0.691430584918957</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0.694057040998217</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0.598043969102792</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0.698082505729564</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1"/>
-      <c r="C45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0.264430433907178</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.308569415081043</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0.305942959001782</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0.401956030897207</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0.301917494270435</v>
-      </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1"/>
-      <c r="C46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="9">
-        <v>0.340541497975708</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0.373221360895779</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0.316351788097341</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0.471564213564213</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0.304069384721558</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1"/>
-      <c r="C47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="9">
-        <v>0.928001457008888</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0.931350714522578</v>
-      </c>
-      <c r="F47" s="9">
-        <v>0.923495647543554</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0.936691680595751</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0.926379307484305</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1"/>
-      <c r="C48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="9">
-        <v>0.316753485283748</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0.356400807089451</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0.253323471697973</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0.373926906488527</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0.28557945852476</v>
-      </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1"/>
-      <c r="C49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="9">
-        <v>0.285204656765555</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0.326673713883016</v>
-      </c>
-      <c r="F49" s="9">
-        <v>0.306540775401069</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0.423753229311209</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0.294531913975711</v>
-      </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0.556650246305418</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0.529702970297029</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.579207920792079</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0.539603960396039</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1"/>
-      <c r="C51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="9">
-        <v>0.203544402456306</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0.163914746543778</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0.183208262728959</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0.368371620649985</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0.407552357860707</v>
-      </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1"/>
-      <c r="C52" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0.697990284908889</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0.699776250880902</v>
-      </c>
-      <c r="F52" s="9">
-        <v>0.70949376114082</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0.504449961802903</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.531093073593073</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1"/>
-      <c r="C53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0.30200971509111</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0.300223749119097</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0.29050623885918</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0.495550038197097</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.468906926406926</v>
-      </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1"/>
-      <c r="C54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="9">
-        <v>0.374511784511784</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0.35521505376344</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0.324122965641953</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0.571307468275431</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.509441358966534</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1"/>
-      <c r="C55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0.931437206997908</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0.929945980942624</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0.923835631267182</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0.938001979882005</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.934410757295759</v>
-      </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1"/>
-      <c r="C56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="9">
-        <v>0.368366984023274</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0.400500340564015</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0.326535870990069</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0.415524239199399</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0.361770591580605</v>
-      </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1"/>
-      <c r="C57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="9">
-        <v>0.324504401687064</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0.308562207732332</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0.289102564102564</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0.517007971703093</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.474451429987424</v>
-      </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="5">
-        <v>0.669683257918552</v>
-      </c>
-      <c r="E58" s="5">
-        <v>0.737556561085972</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0.69090909090909</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.736363636363636</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0.718181818181818</v>
-      </c>
-      <c r="I58" s="5">
-        <v>0.663636363636363</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0.668181818181818</v>
-      </c>
-      <c r="K58" s="5">
-        <v>0.654545454545454</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0.686363636363636</v>
-      </c>
-      <c r="M58" s="5">
-        <v>0.713636363636363</v>
-      </c>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
@@ -2448,35 +2555,25 @@
         <v>16</v>
       </c>
       <c r="D59" s="9">
-        <v>0.414029607416704</v>
+        <v>0.222112375533428</v>
       </c>
       <c r="E59" s="9">
-        <v>0.283469696969696</v>
+        <v>0.216759247671034</v>
       </c>
       <c r="F59" s="9">
-        <v>0.325545454545454</v>
+        <v>0.348597839358708</v>
       </c>
       <c r="G59" s="9">
-        <v>0.31872795414462</v>
+        <v>0.393578523030148</v>
       </c>
       <c r="H59" s="9">
-        <v>0.301390692640692</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0.288384353741496</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0.283263546798029</v>
-      </c>
-      <c r="K59" s="9">
-        <v>0.347388517279821</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0.337694099378881</v>
-      </c>
-      <c r="M59" s="9">
-        <v>0.392587583911302</v>
-      </c>
+        <v>0.332689355057776</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
@@ -2484,35 +2581,25 @@
         <v>17</v>
       </c>
       <c r="D60" s="9">
-        <v>0.368906166932482</v>
+        <v>0.735569566092822</v>
       </c>
       <c r="E60" s="9">
-        <v>0.304902261481208</v>
+        <v>0.691430584918957</v>
       </c>
       <c r="F60" s="9">
-        <v>0.340268941584731</v>
+        <v>0.694057040998217</v>
       </c>
       <c r="G60" s="9">
-        <v>0.350461662123731</v>
+        <v>0.598043969102792</v>
       </c>
       <c r="H60" s="9">
-        <v>0.330190522072506</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0.415552670797382</v>
-      </c>
-      <c r="J60" s="9">
-        <v>0.352008397995488</v>
-      </c>
-      <c r="K60" s="9">
-        <v>0.396892796580361</v>
-      </c>
-      <c r="L60" s="9">
-        <v>0.320886283011532</v>
-      </c>
-      <c r="M60" s="9">
-        <v>0.331111168053206</v>
-      </c>
+        <v>0.698082505729564</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
     </row>
     <row r="61">
       <c r="A61" s="1"/>
@@ -2520,35 +2607,25 @@
         <v>18</v>
       </c>
       <c r="D61" s="9">
-        <v>0.631093833067517</v>
+        <v>0.264430433907178</v>
       </c>
       <c r="E61" s="9">
-        <v>0.695097738518791</v>
+        <v>0.308569415081043</v>
       </c>
       <c r="F61" s="9">
-        <v>0.659731058415269</v>
+        <v>0.305942959001782</v>
       </c>
       <c r="G61" s="9">
-        <v>0.649538337876268</v>
+        <v>0.401956030897207</v>
       </c>
       <c r="H61" s="9">
-        <v>0.669809477927493</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0.584447329202617</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0.647991602004511</v>
-      </c>
-      <c r="K61" s="9">
-        <v>0.603107203419638</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0.679113716988467</v>
-      </c>
-      <c r="M61" s="9">
-        <v>0.668888831946793</v>
-      </c>
+        <v>0.301917494270435</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
@@ -2556,35 +2633,25 @@
         <v>19</v>
       </c>
       <c r="D62" s="9">
-        <v>0.654851254214887</v>
+        <v>0.340541497975708</v>
       </c>
       <c r="E62" s="9">
-        <v>0.801365280578763</v>
+        <v>0.373221360895779</v>
       </c>
       <c r="F62" s="9">
-        <v>0.72896756021756</v>
+        <v>0.316351788097341</v>
       </c>
       <c r="G62" s="9">
-        <v>0.793094193755132</v>
+        <v>0.471564213564213</v>
       </c>
       <c r="H62" s="9">
-        <v>0.720646736775769</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0.610924331647174</v>
-      </c>
-      <c r="J62" s="9">
-        <v>0.815239176777638</v>
-      </c>
-      <c r="K62" s="9">
-        <v>0.675328086968789</v>
-      </c>
-      <c r="L62" s="9">
-        <v>0.72066848436573</v>
-      </c>
-      <c r="M62" s="9">
-        <v>0.670469213326356</v>
-      </c>
+        <v>0.304069384721558</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
     </row>
     <row r="63">
       <c r="A63" s="1"/>
@@ -2592,35 +2659,25 @@
         <v>20</v>
       </c>
       <c r="D63" s="9">
-        <v>0.968866432383776</v>
+        <v>0.928001457008888</v>
       </c>
       <c r="E63" s="9">
-        <v>0.973829020122228</v>
+        <v>0.931350714522578</v>
       </c>
       <c r="F63" s="9">
-        <v>0.969366233619987</v>
+        <v>0.923495647543554</v>
       </c>
       <c r="G63" s="9">
-        <v>0.973973444113403</v>
+        <v>0.936691680595751</v>
       </c>
       <c r="H63" s="9">
-        <v>0.971381216587031</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0.965842050689794</v>
-      </c>
-      <c r="J63" s="9">
-        <v>0.966294073247552</v>
-      </c>
-      <c r="K63" s="9">
-        <v>0.965239551120098</v>
-      </c>
-      <c r="L63" s="9">
-        <v>0.968256262510538</v>
-      </c>
-      <c r="M63" s="9">
-        <v>0.970747169273455</v>
-      </c>
+        <v>0.926379307484305</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
@@ -2628,35 +2685,25 @@
         <v>21</v>
       </c>
       <c r="D64" s="9">
-        <v>0.593186126096475</v>
+        <v>0.316753485283748</v>
       </c>
       <c r="E64" s="9">
-        <v>0.670357694477094</v>
+        <v>0.356400807089451</v>
       </c>
       <c r="F64" s="9">
-        <v>0.610686435636502</v>
+        <v>0.253323471697973</v>
       </c>
       <c r="G64" s="9">
-        <v>0.668945390648998</v>
+        <v>0.373926906488527</v>
       </c>
       <c r="H64" s="9">
-        <v>0.645372823783308</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0.574776997266322</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0.579001386524823</v>
-      </c>
-      <c r="K64" s="9">
-        <v>0.566370034603481</v>
-      </c>
-      <c r="L64" s="9">
-        <v>0.605724661780584</v>
-      </c>
-      <c r="M64" s="9">
-        <v>0.64022037150993</v>
-      </c>
+        <v>0.28557945852476</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
@@ -2664,91 +2711,56 @@
         <v>22</v>
       </c>
       <c r="D65" s="9">
-        <v>0.627578012922091</v>
+        <v>0.285204656765555</v>
       </c>
       <c r="E65" s="9">
-        <v>0.726773892176958</v>
+        <v>0.326673713883016</v>
       </c>
       <c r="F65" s="9">
-        <v>0.685364570721675</v>
+        <v>0.306540775401069</v>
       </c>
       <c r="G65" s="9">
-        <v>0.679841153370565</v>
+        <v>0.423753229311209</v>
       </c>
       <c r="H65" s="9">
-        <v>0.687172732350672</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0.594420286907553</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0.682487709646398</v>
-      </c>
-      <c r="K65" s="9">
-        <v>0.625288452399146</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0.688937725903132</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0.662001358388512</v>
-      </c>
+        <v>0.294531913975711</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="5">
-        <v>0.687782805429864</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0.751131221719457</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0.763636363636363</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0.69090909090909</v>
-      </c>
-      <c r="I66" s="5">
-        <v>0.681818181818181</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0.668181818181818</v>
-      </c>
-      <c r="K66" s="5">
-        <v>0.69090909090909</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0.686363636363636</v>
-      </c>
-      <c r="M66" s="5">
-        <v>0.731818181818181</v>
-      </c>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
+      <c r="D66" s="6">
+        <v>0.556650246305418</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.529702970297029</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.579207920792079</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.539603960396039</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
@@ -2756,35 +2768,25 @@
         <v>16</v>
       </c>
       <c r="D67" s="9">
-        <v>0.357650829562594</v>
+        <v>0.203544402456306</v>
       </c>
       <c r="E67" s="9">
-        <v>0.45488487020745</v>
+        <v>0.163914746543778</v>
       </c>
       <c r="F67" s="9">
-        <v>0.286029411764705</v>
+        <v>0.183208262728959</v>
       </c>
       <c r="G67" s="9">
-        <v>0.42310606060606</v>
+        <v>0.368371620649985</v>
       </c>
       <c r="H67" s="9">
-        <v>0.351171481024422</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0.342856683409752</v>
-      </c>
-      <c r="J67" s="9">
-        <v>0.383166221033868</v>
-      </c>
-      <c r="K67" s="9">
-        <v>0.308549059636016</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0.378885582010582</v>
-      </c>
-      <c r="M67" s="9">
-        <v>0.483488292011019</v>
-      </c>
+        <v>0.407552357860707</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
@@ -2792,35 +2794,25 @@
         <v>17</v>
       </c>
       <c r="D68" s="9">
-        <v>0.364281478755163</v>
+        <v>0.697990284908889</v>
       </c>
       <c r="E68" s="9">
-        <v>0.24132972290867</v>
+        <v>0.699776250880902</v>
       </c>
       <c r="F68" s="9">
-        <v>0.300468610337031</v>
+        <v>0.70949376114082</v>
       </c>
       <c r="G68" s="9">
-        <v>0.280916515104743</v>
+        <v>0.504449961802903</v>
       </c>
       <c r="H68" s="9">
-        <v>0.349559812809634</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0.46947110125701</v>
-      </c>
-      <c r="J68" s="9">
-        <v>0.31627935795063</v>
-      </c>
-      <c r="K68" s="9">
-        <v>0.387257467505118</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0.324278478942036</v>
-      </c>
-      <c r="M68" s="9">
-        <v>0.2394089125768</v>
-      </c>
+        <v>0.531093073593073</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -2828,35 +2820,25 @@
         <v>18</v>
       </c>
       <c r="D69" s="9">
-        <v>0.635718521244837</v>
+        <v>0.30200971509111</v>
       </c>
       <c r="E69" s="9">
-        <v>0.758670277091329</v>
+        <v>0.300223749119097</v>
       </c>
       <c r="F69" s="9">
-        <v>0.699531389662968</v>
+        <v>0.29050623885918</v>
       </c>
       <c r="G69" s="9">
-        <v>0.719083484895256</v>
+        <v>0.495550038197097</v>
       </c>
       <c r="H69" s="9">
-        <v>0.650440187190366</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0.530528898742989</v>
-      </c>
-      <c r="J69" s="9">
-        <v>0.683720642049369</v>
-      </c>
-      <c r="K69" s="9">
-        <v>0.612742532494881</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0.675721521057963</v>
-      </c>
-      <c r="M69" s="9">
-        <v>0.760591087423199</v>
-      </c>
+        <v>0.468906926406926</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -2864,35 +2846,25 @@
         <v>19</v>
       </c>
       <c r="D70" s="9">
-        <v>0.69027276119169</v>
+        <v>0.374511784511784</v>
       </c>
       <c r="E70" s="9">
-        <v>0.808252682390613</v>
+        <v>0.35521505376344</v>
       </c>
       <c r="F70" s="9">
-        <v>0.858886685578414</v>
+        <v>0.324122965641953</v>
       </c>
       <c r="G70" s="9">
-        <v>0.762575691228442</v>
+        <v>0.571307468275431</v>
       </c>
       <c r="H70" s="9">
-        <v>0.724222999222999</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0.594353007475179</v>
-      </c>
-      <c r="J70" s="9">
-        <v>0.788016603279761</v>
-      </c>
-      <c r="K70" s="9">
-        <v>0.713019954552212</v>
-      </c>
-      <c r="L70" s="9">
-        <v>0.709143135749621</v>
-      </c>
-      <c r="M70" s="9">
-        <v>0.718056881084176</v>
-      </c>
+        <v>0.509441358966534</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
@@ -2900,35 +2872,25 @@
         <v>20</v>
       </c>
       <c r="D71" s="9">
-        <v>0.969265933019487</v>
+        <v>0.931437206997908</v>
       </c>
       <c r="E71" s="9">
-        <v>0.975465997628516</v>
+        <v>0.929945980942624</v>
       </c>
       <c r="F71" s="9">
-        <v>0.969778693342761</v>
+        <v>0.923835631267182</v>
       </c>
       <c r="G71" s="9">
-        <v>0.976325558533649</v>
+        <v>0.938001979882005</v>
       </c>
       <c r="H71" s="9">
-        <v>0.968919310261677</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0.968055453370031</v>
-      </c>
-      <c r="J71" s="9">
-        <v>0.966051555492368</v>
-      </c>
-      <c r="K71" s="9">
-        <v>0.968503894038839</v>
-      </c>
-      <c r="L71" s="9">
-        <v>0.968533302093501</v>
-      </c>
-      <c r="M71" s="9">
-        <v>0.973424731717591</v>
-      </c>
+        <v>0.934410757295759</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
@@ -2936,35 +2898,25 @@
         <v>21</v>
       </c>
       <c r="D72" s="9">
-        <v>0.609407995059646</v>
+        <v>0.368366984023274</v>
       </c>
       <c r="E72" s="9">
-        <v>0.688804050874599</v>
+        <v>0.400500340564015</v>
       </c>
       <c r="F72" s="9">
-        <v>0.624220195273907</v>
+        <v>0.326535870990069</v>
       </c>
       <c r="G72" s="9">
-        <v>0.705065961005145</v>
+        <v>0.415524239199399</v>
       </c>
       <c r="H72" s="9">
-        <v>0.610451063053917</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0.597137305936482</v>
-      </c>
-      <c r="J72" s="9">
-        <v>0.58048920720102</v>
-      </c>
-      <c r="K72" s="9">
-        <v>0.610380358946721</v>
-      </c>
-      <c r="L72" s="9">
-        <v>0.604637200060815</v>
-      </c>
-      <c r="M72" s="9">
-        <v>0.665107349211203</v>
-      </c>
+        <v>0.361770591580605</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
@@ -2972,91 +2924,66 @@
         <v>22</v>
       </c>
       <c r="D73" s="9">
-        <v>0.641091200356879</v>
+        <v>0.324504401687064</v>
       </c>
       <c r="E73" s="9">
-        <v>0.773365596708566</v>
+        <v>0.308562207732332</v>
       </c>
       <c r="F73" s="9">
-        <v>0.742741942112872</v>
+        <v>0.289102564102564</v>
       </c>
       <c r="G73" s="9">
-        <v>0.729301140808759</v>
+        <v>0.517007971703093</v>
       </c>
       <c r="H73" s="9">
-        <v>0.67532412653632</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0.551272669916737</v>
-      </c>
-      <c r="J73" s="9">
-        <v>0.702711318010508</v>
-      </c>
-      <c r="K73" s="9">
-        <v>0.639867109634551</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0.685352447889722</v>
-      </c>
-      <c r="M73" s="9">
-        <v>0.723030433285346</v>
-      </c>
+        <v>0.474451429987424</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="5">
-        <v>0.878564857405703</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0.860165593376265</v>
-      </c>
-      <c r="F74" s="5">
-        <v>0.866605335786568</v>
-      </c>
-      <c r="G74" s="5">
-        <v>0.861085556577736</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0.878564857405703</v>
-      </c>
-      <c r="I74" s="5">
-        <v>0.866605335786568</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0.866605335786568</v>
-      </c>
-      <c r="K74" s="5">
-        <v>0.863845446182152</v>
-      </c>
-      <c r="L74" s="5">
-        <v>0.872007366482504</v>
-      </c>
-      <c r="M74" s="5">
-        <v>0.883977900552486</v>
-      </c>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-      <c r="AA74" s="6"/>
-      <c r="AB74" s="6"/>
+      <c r="D74" s="6">
+        <v>0.669683257918552</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0.737556561085972</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.69090909090909</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.736363636363636</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0.718181818181818</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.663636363636363</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0.668181818181818</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0.654545454545454</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0.686363636363636</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0.713636363636363</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -3064,34 +2991,34 @@
         <v>16</v>
       </c>
       <c r="D75" s="9">
-        <v>0.611808144310355</v>
+        <v>0.414029607416704</v>
       </c>
       <c r="E75" s="9">
-        <v>0.516453243015742</v>
+        <v>0.283469696969696</v>
       </c>
       <c r="F75" s="9">
-        <v>0.561531922311032</v>
+        <v>0.325545454545454</v>
       </c>
       <c r="G75" s="9">
-        <v>0.530034503703846</v>
+        <v>0.31872795414462</v>
       </c>
       <c r="H75" s="9">
-        <v>0.467283072268579</v>
+        <v>0.301390692640692</v>
       </c>
       <c r="I75" s="9">
-        <v>0.610265391487979</v>
+        <v>0.288384353741496</v>
       </c>
       <c r="J75" s="9">
-        <v>0.481552343159486</v>
+        <v>0.283263546798029</v>
       </c>
       <c r="K75" s="9">
-        <v>0.534634747581176</v>
+        <v>0.347388517279821</v>
       </c>
       <c r="L75" s="9">
-        <v>0.557843283812764</v>
+        <v>0.337694099378881</v>
       </c>
       <c r="M75" s="9">
-        <v>0.494855908292939</v>
+        <v>0.392587583911302</v>
       </c>
     </row>
     <row r="76">
@@ -3100,34 +3027,34 @@
         <v>17</v>
       </c>
       <c r="D76" s="9">
-        <v>0.174833172359119</v>
+        <v>0.368906166932482</v>
       </c>
       <c r="E76" s="9">
-        <v>0.215013429646</v>
+        <v>0.304902261481208</v>
       </c>
       <c r="F76" s="9">
-        <v>0.143333937301445</v>
+        <v>0.340268941584731</v>
       </c>
       <c r="G76" s="9">
-        <v>0.199918214988767</v>
+        <v>0.350461662123731</v>
       </c>
       <c r="H76" s="9">
-        <v>0.220174667243287</v>
+        <v>0.330190522072506</v>
       </c>
       <c r="I76" s="9">
-        <v>0.14207284999498</v>
+        <v>0.415552670797382</v>
       </c>
       <c r="J76" s="9">
-        <v>0.236472370718287</v>
+        <v>0.352008397995488</v>
       </c>
       <c r="K76" s="9">
-        <v>0.171233842139329</v>
+        <v>0.396892796580361</v>
       </c>
       <c r="L76" s="9">
-        <v>0.141114884179484</v>
+        <v>0.320886283011532</v>
       </c>
       <c r="M76" s="9">
-        <v>0.188621587647055</v>
+        <v>0.331111168053206</v>
       </c>
     </row>
     <row r="77">
@@ -3136,34 +3063,34 @@
         <v>18</v>
       </c>
       <c r="D77" s="9">
-        <v>0.82516682764088</v>
+        <v>0.631093833067517</v>
       </c>
       <c r="E77" s="9">
-        <v>0.784986570353999</v>
+        <v>0.695097738518791</v>
       </c>
       <c r="F77" s="9">
-        <v>0.856666062698554</v>
+        <v>0.659731058415269</v>
       </c>
       <c r="G77" s="9">
-        <v>0.800081785011232</v>
+        <v>0.649538337876268</v>
       </c>
       <c r="H77" s="9">
-        <v>0.779825332756712</v>
+        <v>0.669809477927493</v>
       </c>
       <c r="I77" s="9">
-        <v>0.857927150005019</v>
+        <v>0.584447329202617</v>
       </c>
       <c r="J77" s="9">
-        <v>0.718614239323965</v>
+        <v>0.647991602004511</v>
       </c>
       <c r="K77" s="9">
-        <v>0.82876615786067</v>
+        <v>0.603107203419638</v>
       </c>
       <c r="L77" s="9">
-        <v>0.858885115820515</v>
+        <v>0.679113716988467</v>
       </c>
       <c r="M77" s="9">
-        <v>0.811378412352944</v>
+        <v>0.668888831946793</v>
       </c>
     </row>
     <row r="78">
@@ -3172,34 +3099,34 @@
         <v>19</v>
       </c>
       <c r="D78" s="9">
-        <v>0.799513239923684</v>
+        <v>0.654851254214887</v>
       </c>
       <c r="E78" s="9">
-        <v>0.785130725226967</v>
+        <v>0.801365280578763</v>
       </c>
       <c r="F78" s="9">
-        <v>0.833892920376013</v>
+        <v>0.72896756021756</v>
       </c>
       <c r="G78" s="9">
-        <v>0.754231958484473</v>
+        <v>0.793094193755132</v>
       </c>
       <c r="H78" s="9">
-        <v>0.805950889774572</v>
+        <v>0.720646736775769</v>
       </c>
       <c r="I78" s="9">
-        <v>0.839544134065203</v>
+        <v>0.610924331647174</v>
       </c>
       <c r="J78" s="9">
-        <v>0.727047485991985</v>
+        <v>0.815239176777638</v>
       </c>
       <c r="K78" s="9">
-        <v>0.841935213841267</v>
+        <v>0.675328086968789</v>
       </c>
       <c r="L78" s="9">
-        <v>0.825266980796573</v>
+        <v>0.72066848436573</v>
       </c>
       <c r="M78" s="9">
-        <v>0.803999087841652</v>
+        <v>0.670469213326356</v>
       </c>
     </row>
     <row r="79">
@@ -3208,34 +3135,34 @@
         <v>20</v>
       </c>
       <c r="D79" s="9">
-        <v>0.990677756304655</v>
+        <v>0.968866432383776</v>
       </c>
       <c r="E79" s="9">
-        <v>0.988578215148807</v>
+        <v>0.973829020122228</v>
       </c>
       <c r="F79" s="9">
-        <v>0.98915899235859</v>
+        <v>0.969366233619987</v>
       </c>
       <c r="G79" s="9">
-        <v>0.989818524898418</v>
+        <v>0.973973444113403</v>
       </c>
       <c r="H79" s="9">
-        <v>0.990781971697209</v>
+        <v>0.971381216587031</v>
       </c>
       <c r="I79" s="9">
-        <v>0.988867672760418</v>
+        <v>0.965842050689794</v>
       </c>
       <c r="J79" s="9">
-        <v>0.989449989639821</v>
+        <v>0.966294073247552</v>
       </c>
       <c r="K79" s="9">
-        <v>0.989510748729222</v>
+        <v>0.965239551120098</v>
       </c>
       <c r="L79" s="9">
-        <v>0.989554489258853</v>
+        <v>0.968256262510538</v>
       </c>
       <c r="M79" s="9">
-        <v>0.991177668910411</v>
+        <v>0.970747169273455</v>
       </c>
     </row>
     <row r="80">
@@ -3244,34 +3171,34 @@
         <v>21</v>
       </c>
       <c r="D80" s="9">
-        <v>0.823989914901499</v>
+        <v>0.593186126096475</v>
       </c>
       <c r="E80" s="9">
-        <v>0.795617999315305</v>
+        <v>0.670357694477094</v>
       </c>
       <c r="F80" s="9">
-        <v>0.804987624865488</v>
+        <v>0.610686435636502</v>
       </c>
       <c r="G80" s="9">
-        <v>0.800311503003355</v>
+        <v>0.668945390648998</v>
       </c>
       <c r="H80" s="9">
-        <v>0.823191321505778</v>
+        <v>0.645372823783308</v>
       </c>
       <c r="I80" s="9">
-        <v>0.806824518003798</v>
+        <v>0.574776997266322</v>
       </c>
       <c r="J80" s="9">
-        <v>0.804432159623678</v>
+        <v>0.579001386524823</v>
       </c>
       <c r="K80" s="9">
-        <v>0.802136554982315</v>
+        <v>0.566370034603481</v>
       </c>
       <c r="L80" s="9">
-        <v>0.812882976631574</v>
+        <v>0.605724661780584</v>
       </c>
       <c r="M80" s="9">
-        <v>0.831962674440715</v>
+        <v>0.64022037150993</v>
       </c>
     </row>
     <row r="81">
@@ -3280,91 +3207,76 @@
         <v>22</v>
       </c>
       <c r="D81" s="9">
-        <v>0.809903305115824</v>
+        <v>0.627578012922091</v>
       </c>
       <c r="E81" s="9">
-        <v>0.780537017378327</v>
+        <v>0.726773892176958</v>
       </c>
       <c r="F81" s="9">
-        <v>0.838821977713154</v>
+        <v>0.685364570721675</v>
       </c>
       <c r="G81" s="9">
-        <v>0.770678718450958</v>
+        <v>0.679841153370565</v>
       </c>
       <c r="H81" s="9">
-        <v>0.786146460438781</v>
+        <v>0.687172732350672</v>
       </c>
       <c r="I81" s="9">
-        <v>0.845006890148763</v>
+        <v>0.594420286907553</v>
       </c>
       <c r="J81" s="9">
-        <v>0.715023211611244</v>
+        <v>0.682487709646398</v>
       </c>
       <c r="K81" s="9">
-        <v>0.828084450467693</v>
+        <v>0.625288452399146</v>
       </c>
       <c r="L81" s="9">
-        <v>0.834458959746533</v>
+        <v>0.688937725903132</v>
       </c>
       <c r="M81" s="9">
-        <v>0.804591053936087</v>
+        <v>0.662001358388512</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="A82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="5">
-        <v>0.883164673413063</v>
-      </c>
-      <c r="E82" s="5">
-        <v>0.880404783808647</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0.875804967801287</v>
-      </c>
-      <c r="G82" s="5">
-        <v>0.881324747010119</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0.888684452621895</v>
-      </c>
-      <c r="I82" s="5">
-        <v>0.883164673413063</v>
-      </c>
-      <c r="J82" s="5">
-        <v>0.893284268629254</v>
-      </c>
-      <c r="K82" s="5">
-        <v>0.871205151793928</v>
-      </c>
-      <c r="L82" s="5">
-        <v>0.882136279926335</v>
-      </c>
-      <c r="M82" s="5">
-        <v>0.897790055248618</v>
-      </c>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
+      <c r="D82" s="6">
+        <v>0.687782805429864</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0.751131221719457</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0.763636363636363</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0.69090909090909</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0.681818181818181</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0.668181818181818</v>
+      </c>
+      <c r="K82" s="6">
+        <v>0.69090909090909</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0.686363636363636</v>
+      </c>
+      <c r="M82" s="6">
+        <v>0.731818181818181</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
@@ -3372,34 +3284,34 @@
         <v>16</v>
       </c>
       <c r="D83" s="9">
-        <v>0.422083306756814</v>
+        <v>0.357650829562594</v>
       </c>
       <c r="E83" s="9">
-        <v>0.410408519052325</v>
+        <v>0.45488487020745</v>
       </c>
       <c r="F83" s="9">
-        <v>0.397794928635024</v>
+        <v>0.286029411764705</v>
       </c>
       <c r="G83" s="9">
-        <v>0.498625452794169</v>
+        <v>0.42310606060606</v>
       </c>
       <c r="H83" s="9">
-        <v>0.47669030875003</v>
+        <v>0.351171481024422</v>
       </c>
       <c r="I83" s="9">
-        <v>0.494039725788396</v>
+        <v>0.342856683409752</v>
       </c>
       <c r="J83" s="9">
-        <v>0.442552580006106</v>
+        <v>0.383166221033868</v>
       </c>
       <c r="K83" s="9">
-        <v>0.407082467082467</v>
+        <v>0.308549059636016</v>
       </c>
       <c r="L83" s="9">
-        <v>0.423185719478783</v>
+        <v>0.378885582010582</v>
       </c>
       <c r="M83" s="9">
-        <v>0.335947207911201</v>
+        <v>0.483488292011019</v>
       </c>
     </row>
     <row r="84">
@@ -3408,34 +3320,34 @@
         <v>17</v>
       </c>
       <c r="D84" s="9">
-        <v>0.117028325432958</v>
+        <v>0.364281478755163</v>
       </c>
       <c r="E84" s="9">
-        <v>0.138303874750634</v>
+        <v>0.24132972290867</v>
       </c>
       <c r="F84" s="9">
-        <v>0.133409098682024</v>
+        <v>0.300468610337031</v>
       </c>
       <c r="G84" s="9">
-        <v>0.181757462485299</v>
+        <v>0.280916515104743</v>
       </c>
       <c r="H84" s="9">
-        <v>0.140480450442152</v>
+        <v>0.349559812809634</v>
       </c>
       <c r="I84" s="9">
-        <v>0.133849426773481</v>
+        <v>0.46947110125701</v>
       </c>
       <c r="J84" s="9">
-        <v>0.191627935893512</v>
+        <v>0.31627935795063</v>
       </c>
       <c r="K84" s="9">
-        <v>0.178243617332839</v>
+        <v>0.387257467505118</v>
       </c>
       <c r="L84" s="9">
-        <v>0.131669921847201</v>
+        <v>0.324278478942036</v>
       </c>
       <c r="M84" s="9">
-        <v>0.235297632633501</v>
+        <v>0.2394089125768</v>
       </c>
     </row>
     <row r="85">
@@ -3444,34 +3356,34 @@
         <v>18</v>
       </c>
       <c r="D85" s="9">
-        <v>0.882971674567041</v>
+        <v>0.635718521244837</v>
       </c>
       <c r="E85" s="9">
-        <v>0.861696125249365</v>
+        <v>0.758670277091329</v>
       </c>
       <c r="F85" s="9">
-        <v>0.866590901317975</v>
+        <v>0.699531389662968</v>
       </c>
       <c r="G85" s="9">
-        <v>0.8182425375147</v>
+        <v>0.719083484895256</v>
       </c>
       <c r="H85" s="9">
-        <v>0.859519549557847</v>
+        <v>0.650440187190366</v>
       </c>
       <c r="I85" s="9">
-        <v>0.866150573226518</v>
+        <v>0.530528898742989</v>
       </c>
       <c r="J85" s="9">
-        <v>0.808372064106487</v>
+        <v>0.683720642049369</v>
       </c>
       <c r="K85" s="9">
-        <v>0.82175638266716</v>
+        <v>0.612742532494881</v>
       </c>
       <c r="L85" s="9">
-        <v>0.868330078152798</v>
+        <v>0.675721521057963</v>
       </c>
       <c r="M85" s="9">
-        <v>0.764702367366498</v>
+        <v>0.760591087423199</v>
       </c>
     </row>
     <row r="86">
@@ -3480,34 +3392,34 @@
         <v>19</v>
       </c>
       <c r="D86" s="9">
-        <v>0.894374894669329</v>
+        <v>0.69027276119169</v>
       </c>
       <c r="E86" s="9">
-        <v>0.896237649812789</v>
+        <v>0.808252682390613</v>
       </c>
       <c r="F86" s="9">
-        <v>0.900902274466014</v>
+        <v>0.858886685578414</v>
       </c>
       <c r="G86" s="9">
-        <v>0.793090240084765</v>
+        <v>0.762575691228442</v>
       </c>
       <c r="H86" s="9">
-        <v>0.884658592196131</v>
+        <v>0.724222999222999</v>
       </c>
       <c r="I86" s="9">
-        <v>0.879280270933545</v>
+        <v>0.594353007475179</v>
       </c>
       <c r="J86" s="9">
-        <v>0.835929646728498</v>
+        <v>0.788016603279761</v>
       </c>
       <c r="K86" s="9">
-        <v>0.878936590804454</v>
+        <v>0.713019954552212</v>
       </c>
       <c r="L86" s="9">
-        <v>0.90015040939042</v>
+        <v>0.709143135749621</v>
       </c>
       <c r="M86" s="9">
-        <v>0.798032149283018</v>
+        <v>0.718056881084176</v>
       </c>
     </row>
     <row r="87">
@@ -3516,34 +3428,34 @@
         <v>20</v>
       </c>
       <c r="D87" s="9">
-        <v>0.990182230420912</v>
+        <v>0.969265933019487</v>
       </c>
       <c r="E87" s="9">
-        <v>0.989705346810978</v>
+        <v>0.975465997628516</v>
       </c>
       <c r="F87" s="9">
-        <v>0.989056229934608</v>
+        <v>0.969778693342761</v>
       </c>
       <c r="G87" s="9">
-        <v>0.990468949608294</v>
+        <v>0.976325558533649</v>
       </c>
       <c r="H87" s="9">
-        <v>0.990929498000889</v>
+        <v>0.968919310261677</v>
       </c>
       <c r="I87" s="9">
-        <v>0.989448614237656</v>
+        <v>0.968055453370031</v>
       </c>
       <c r="J87" s="9">
-        <v>0.990161732801405</v>
+        <v>0.966051555492368</v>
       </c>
       <c r="K87" s="9">
-        <v>0.989246798263752</v>
+        <v>0.968503894038839</v>
       </c>
       <c r="L87" s="9">
-        <v>0.989204989260484</v>
+        <v>0.968533302093501</v>
       </c>
       <c r="M87" s="9">
-        <v>0.99142088242687</v>
+        <v>0.973424731717591</v>
       </c>
     </row>
     <row r="88">
@@ -3552,34 +3464,34 @@
         <v>21</v>
       </c>
       <c r="D88" s="9">
-        <v>0.828797710235895</v>
+        <v>0.609407995059646</v>
       </c>
       <c r="E88" s="9">
-        <v>0.823994483438376</v>
+        <v>0.688804050874599</v>
       </c>
       <c r="F88" s="9">
-        <v>0.81707209290658</v>
+        <v>0.624220195273907</v>
       </c>
       <c r="G88" s="9">
-        <v>0.826926624351006</v>
+        <v>0.705065961005145</v>
       </c>
       <c r="H88" s="9">
-        <v>0.837086794034579</v>
+        <v>0.610451063053917</v>
       </c>
       <c r="I88" s="9">
-        <v>0.828827525665961</v>
+        <v>0.597137305936482</v>
       </c>
       <c r="J88" s="9">
-        <v>0.842786300489969</v>
+        <v>0.58048920720102</v>
       </c>
       <c r="K88" s="9">
-        <v>0.810430816884626</v>
+        <v>0.610380358946721</v>
       </c>
       <c r="L88" s="9">
-        <v>0.825616986857618</v>
+        <v>0.604637200060815</v>
       </c>
       <c r="M88" s="9">
-        <v>0.850335698341365</v>
+        <v>0.665107349211203</v>
       </c>
     </row>
     <row r="89">
@@ -3588,38 +3500,1027 @@
         <v>22</v>
       </c>
       <c r="D89" s="9">
+        <v>0.641091200356879</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0.773365596708566</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0.742741942112872</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0.729301140808759</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0.67532412653632</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0.551272669916737</v>
+      </c>
+      <c r="J89" s="9">
+        <v>0.702711318010508</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0.639867109634551</v>
+      </c>
+      <c r="L89" s="9">
+        <v>0.685352447889722</v>
+      </c>
+      <c r="M89" s="9">
+        <v>0.723030433285346</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.878564857405703</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.860165593376265</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.866605335786568</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0.861085556577736</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.878564857405703</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0.866605335786568</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0.866605335786568</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.863845446182152</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0.872007366482504</v>
+      </c>
+      <c r="M90" s="6">
+        <v>0.883977900552486</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1"/>
+      <c r="C91" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0.611808144310355</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0.516453243015742</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0.561531922311032</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0.530034503703846</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0.467283072268579</v>
+      </c>
+      <c r="I91" s="9">
+        <v>0.610265391487979</v>
+      </c>
+      <c r="J91" s="9">
+        <v>0.481552343159486</v>
+      </c>
+      <c r="K91" s="9">
+        <v>0.534634747581176</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0.557843283812764</v>
+      </c>
+      <c r="M91" s="9">
+        <v>0.494855908292939</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1"/>
+      <c r="C92" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="9">
+        <v>0.174833172359119</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0.215013429646</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0.143333937301445</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0.199918214988767</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0.220174667243287</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0.14207284999498</v>
+      </c>
+      <c r="J92" s="9">
+        <v>0.236472370718287</v>
+      </c>
+      <c r="K92" s="9">
+        <v>0.171233842139329</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0.141114884179484</v>
+      </c>
+      <c r="M92" s="9">
+        <v>0.188621587647055</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1"/>
+      <c r="C93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0.82516682764088</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.784986570353999</v>
+      </c>
+      <c r="F93" s="9">
+        <v>0.856666062698554</v>
+      </c>
+      <c r="G93" s="9">
+        <v>0.800081785011232</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0.779825332756712</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0.857927150005019</v>
+      </c>
+      <c r="J93" s="9">
+        <v>0.718614239323965</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0.82876615786067</v>
+      </c>
+      <c r="L93" s="9">
+        <v>0.858885115820515</v>
+      </c>
+      <c r="M93" s="9">
+        <v>0.811378412352944</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+      <c r="C94" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="9">
+        <v>0.799513239923684</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0.785130725226967</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0.833892920376013</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0.754231958484473</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0.805950889774572</v>
+      </c>
+      <c r="I94" s="9">
+        <v>0.839544134065203</v>
+      </c>
+      <c r="J94" s="9">
+        <v>0.727047485991985</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0.841935213841267</v>
+      </c>
+      <c r="L94" s="9">
+        <v>0.825266980796573</v>
+      </c>
+      <c r="M94" s="9">
+        <v>0.803999087841652</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="C95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0.990677756304655</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.988578215148807</v>
+      </c>
+      <c r="F95" s="9">
+        <v>0.98915899235859</v>
+      </c>
+      <c r="G95" s="9">
+        <v>0.989818524898418</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0.990781971697209</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0.988867672760418</v>
+      </c>
+      <c r="J95" s="9">
+        <v>0.989449989639821</v>
+      </c>
+      <c r="K95" s="9">
+        <v>0.989510748729222</v>
+      </c>
+      <c r="L95" s="9">
+        <v>0.989554489258853</v>
+      </c>
+      <c r="M95" s="9">
+        <v>0.991177668910411</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="C96" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0.823989914901499</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0.795617999315305</v>
+      </c>
+      <c r="F96" s="9">
+        <v>0.804987624865488</v>
+      </c>
+      <c r="G96" s="9">
+        <v>0.800311503003355</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0.823191321505778</v>
+      </c>
+      <c r="I96" s="9">
+        <v>0.806824518003798</v>
+      </c>
+      <c r="J96" s="9">
+        <v>0.804432159623678</v>
+      </c>
+      <c r="K96" s="9">
+        <v>0.802136554982315</v>
+      </c>
+      <c r="L96" s="9">
+        <v>0.812882976631574</v>
+      </c>
+      <c r="M96" s="9">
+        <v>0.831962674440715</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1"/>
+      <c r="C97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0.809903305115824</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0.780537017378327</v>
+      </c>
+      <c r="F97" s="9">
+        <v>0.838821977713154</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0.770678718450958</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0.786146460438781</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0.845006890148763</v>
+      </c>
+      <c r="J97" s="9">
+        <v>0.715023211611244</v>
+      </c>
+      <c r="K97" s="9">
+        <v>0.828084450467693</v>
+      </c>
+      <c r="L97" s="9">
+        <v>0.834458959746533</v>
+      </c>
+      <c r="M97" s="9">
+        <v>0.804591053936087</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0.883164673413063</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0.880404783808647</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.875804967801287</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.881324747010119</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.888684452621895</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0.883164673413063</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0.893284268629254</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0.871205151793928</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0.882136279926335</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0.897790055248618</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="C99" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="9">
+        <v>0.422083306756814</v>
+      </c>
+      <c r="E99" s="9">
+        <v>0.410408519052325</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0.397794928635024</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0.498625452794169</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0.47669030875003</v>
+      </c>
+      <c r="I99" s="9">
+        <v>0.494039725788396</v>
+      </c>
+      <c r="J99" s="9">
+        <v>0.442552580006106</v>
+      </c>
+      <c r="K99" s="9">
+        <v>0.407082467082467</v>
+      </c>
+      <c r="L99" s="9">
+        <v>0.423185719478783</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0.335947207911201</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="C100" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="9">
+        <v>0.117028325432958</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0.138303874750634</v>
+      </c>
+      <c r="F100" s="9">
+        <v>0.133409098682024</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0.181757462485299</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0.140480450442152</v>
+      </c>
+      <c r="I100" s="9">
+        <v>0.133849426773481</v>
+      </c>
+      <c r="J100" s="9">
+        <v>0.191627935893512</v>
+      </c>
+      <c r="K100" s="9">
+        <v>0.178243617332839</v>
+      </c>
+      <c r="L100" s="9">
+        <v>0.131669921847201</v>
+      </c>
+      <c r="M100" s="9">
+        <v>0.235297632633501</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
+      <c r="C101" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="9">
+        <v>0.882971674567041</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0.861696125249365</v>
+      </c>
+      <c r="F101" s="9">
+        <v>0.866590901317975</v>
+      </c>
+      <c r="G101" s="9">
+        <v>0.8182425375147</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0.859519549557847</v>
+      </c>
+      <c r="I101" s="9">
+        <v>0.866150573226518</v>
+      </c>
+      <c r="J101" s="9">
+        <v>0.808372064106487</v>
+      </c>
+      <c r="K101" s="9">
+        <v>0.82175638266716</v>
+      </c>
+      <c r="L101" s="9">
+        <v>0.868330078152798</v>
+      </c>
+      <c r="M101" s="9">
+        <v>0.764702367366498</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1"/>
+      <c r="C102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="9">
+        <v>0.894374894669329</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0.896237649812789</v>
+      </c>
+      <c r="F102" s="9">
+        <v>0.900902274466014</v>
+      </c>
+      <c r="G102" s="9">
+        <v>0.793090240084765</v>
+      </c>
+      <c r="H102" s="9">
+        <v>0.884658592196131</v>
+      </c>
+      <c r="I102" s="9">
+        <v>0.879280270933545</v>
+      </c>
+      <c r="J102" s="9">
+        <v>0.835929646728498</v>
+      </c>
+      <c r="K102" s="9">
+        <v>0.878936590804454</v>
+      </c>
+      <c r="L102" s="9">
+        <v>0.90015040939042</v>
+      </c>
+      <c r="M102" s="9">
+        <v>0.798032149283018</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1"/>
+      <c r="C103" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0.990182230420912</v>
+      </c>
+      <c r="E103" s="9">
+        <v>0.989705346810978</v>
+      </c>
+      <c r="F103" s="9">
+        <v>0.989056229934608</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0.990468949608294</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0.990929498000889</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0.989448614237656</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0.990161732801405</v>
+      </c>
+      <c r="K103" s="9">
+        <v>0.989246798263752</v>
+      </c>
+      <c r="L103" s="9">
+        <v>0.989204989260484</v>
+      </c>
+      <c r="M103" s="9">
+        <v>0.99142088242687</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1"/>
+      <c r="C104" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0.828797710235895</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0.823994483438376</v>
+      </c>
+      <c r="F104" s="9">
+        <v>0.81707209290658</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0.826926624351006</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0.837086794034579</v>
+      </c>
+      <c r="I104" s="9">
+        <v>0.828827525665961</v>
+      </c>
+      <c r="J104" s="9">
+        <v>0.842786300489969</v>
+      </c>
+      <c r="K104" s="9">
+        <v>0.810430816884626</v>
+      </c>
+      <c r="L104" s="9">
+        <v>0.825616986857618</v>
+      </c>
+      <c r="M104" s="9">
+        <v>0.850335698341365</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1"/>
+      <c r="C105" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="9">
         <v>0.887395234719672</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E105" s="9">
         <v>0.874702900459486</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F105" s="9">
         <v>0.880890553801868</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G105" s="9">
         <v>0.797022527234163</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H105" s="9">
         <v>0.869489645128756</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I105" s="9">
         <v>0.870813978734115</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J105" s="9">
         <v>0.820069770010419</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K105" s="9">
         <v>0.842621924815173</v>
       </c>
-      <c r="L89" s="9">
+      <c r="L105" s="9">
         <v>0.881183164515626</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M105" s="9">
         <v>0.778620273130056</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1"/>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0.524271845</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0.563106796</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.485436893</v>
+      </c>
+      <c r="G106" s="6">
+        <v>0.533980583</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0.514563107</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0.475728155</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0.533980583</v>
+      </c>
+      <c r="K106" s="6">
+        <v>0.568627451</v>
+      </c>
+      <c r="L106" s="6">
+        <v>0.549019608</v>
+      </c>
+      <c r="M106" s="6">
+        <v>0.460784314</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1"/>
+      <c r="C107" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0.498128383</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0.314023098</v>
+      </c>
+      <c r="F107" s="9">
+        <v>0.40031746</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0.452428436</v>
+      </c>
+      <c r="H107" s="9">
+        <v>0.372906941</v>
+      </c>
+      <c r="I107" s="9">
+        <v>0.271693122</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0.450865801</v>
+      </c>
+      <c r="K107" s="9">
+        <v>0.41380719</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0.437362637</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0.210939649</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1"/>
+      <c r="C108" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.366958042</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0.607459207</v>
+      </c>
+      <c r="F108" s="9">
+        <v>0.557459207</v>
+      </c>
+      <c r="G108" s="9">
+        <v>0.5254662</v>
+      </c>
+      <c r="H108" s="9">
+        <v>0.540792541</v>
+      </c>
+      <c r="I108" s="9">
+        <v>0.573316656</v>
+      </c>
+      <c r="J108" s="9">
+        <v>0.506334316</v>
+      </c>
+      <c r="K108" s="9">
+        <v>0.394203358</v>
+      </c>
+      <c r="L108" s="9">
+        <v>0.466689544</v>
+      </c>
+      <c r="M108" s="9">
+        <v>0.717699645</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1"/>
+      <c r="C109" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="9">
+        <v>0.580288462</v>
+      </c>
+      <c r="E109" s="9">
+        <v>0.35982906</v>
+      </c>
+      <c r="F109" s="9">
+        <v>0.405662393</v>
+      </c>
+      <c r="G109" s="9">
+        <v>0.4745338</v>
+      </c>
+      <c r="H109" s="9">
+        <v>0.459207459</v>
+      </c>
+      <c r="I109" s="9">
+        <v>0.426683344</v>
+      </c>
+      <c r="J109" s="9">
+        <v>0.493665684</v>
+      </c>
+      <c r="K109" s="9">
+        <v>0.605796642</v>
+      </c>
+      <c r="L109" s="9">
+        <v>0.488867918</v>
+      </c>
+      <c r="M109" s="9">
+        <v>0.282300355</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1"/>
+      <c r="C110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="9">
+        <v>0.609670422</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0.473032407</v>
+      </c>
+      <c r="F110" s="9">
+        <v>0.478675645</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0.469980805</v>
+      </c>
+      <c r="H110" s="9">
+        <v>0.46337589</v>
+      </c>
+      <c r="I110" s="9">
+        <v>0.488476801</v>
+      </c>
+      <c r="J110" s="9">
+        <v>0.460402799</v>
+      </c>
+      <c r="K110" s="9">
+        <v>0.683682984</v>
+      </c>
+      <c r="L110" s="9">
+        <v>0.523223734</v>
+      </c>
+      <c r="M110" s="9">
+        <v>0.422938173</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1"/>
+      <c r="C111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0.949541059</v>
+      </c>
+      <c r="E111" s="9">
+        <v>0.947655625</v>
+      </c>
+      <c r="F111" s="9">
+        <v>0.940439884</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0.94180279</v>
+      </c>
+      <c r="H111" s="9">
+        <v>0.938161849</v>
+      </c>
+      <c r="I111" s="9">
+        <v>0.936737605</v>
+      </c>
+      <c r="J111" s="9">
+        <v>0.944995333</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0.941615955</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0.94991101</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0.928729008</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1"/>
+      <c r="C112" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="9">
+        <v>0.400076501</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.417643295</v>
+      </c>
+      <c r="F112" s="9">
+        <v>0.320059093</v>
+      </c>
+      <c r="G112" s="9">
+        <v>0.390272552</v>
+      </c>
+      <c r="H112" s="9">
+        <v>0.351194908</v>
+      </c>
+      <c r="I112" s="9">
+        <v>0.281898559</v>
+      </c>
+      <c r="J112" s="9">
+        <v>0.373578604</v>
+      </c>
+      <c r="K112" s="9">
+        <v>0.419768801</v>
+      </c>
+      <c r="L112" s="9">
+        <v>0.408818142</v>
+      </c>
+      <c r="M112" s="9">
+        <v>0.249807997</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1"/>
+      <c r="C113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="9">
+        <v>0.573659492</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0.389067937</v>
+      </c>
+      <c r="F113" s="9">
+        <v>0.429440121</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0.462958618</v>
+      </c>
+      <c r="H113" s="9">
+        <v>0.451629769</v>
+      </c>
+      <c r="I113" s="9">
+        <v>0.441926129</v>
+      </c>
+      <c r="J113" s="9">
+        <v>0.461254031</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0.59484367</v>
+      </c>
+      <c r="L113" s="9">
+        <v>0.500132275</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0.306721057</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
